--- a/BackTest/2019-11-20 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-20 BackTest ZIL.xlsx
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -18931,13 +18931,17 @@
         <v>8.070000000000011</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="K530" t="n">
+        <v>8.07</v>
+      </c>
       <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
@@ -18966,14 +18970,22 @@
         <v>8.155000000000012</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="K531" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19001,14 +19013,22 @@
         <v>8.010000000000012</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K532" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19036,14 +19056,22 @@
         <v>7.965000000000011</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K533" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19071,14 +19099,22 @@
         <v>7.980000000000011</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="K534" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19112,8 +19148,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19147,8 +19189,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19182,8 +19230,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19217,8 +19271,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19252,8 +19312,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19287,8 +19353,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19322,8 +19394,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19357,8 +19435,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19392,8 +19476,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19427,8 +19517,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19462,8 +19558,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19497,8 +19599,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19532,8 +19640,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19567,8 +19681,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19602,8 +19722,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19637,8 +19763,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19672,8 +19804,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19707,8 +19845,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19742,8 +19886,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19777,8 +19927,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19806,18 +19962,20 @@
         <v>7.79000000000001</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="L555" t="inlineStr"/>
+        <v>8.07</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -19845,20 +20003,18 @@
         <v>7.79000000000001</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M556" t="n">
@@ -19888,20 +20044,18 @@
         <v>7.78000000000001</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M557" t="n">
@@ -19931,16 +20085,14 @@
         <v>7.775000000000011</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -19974,16 +20126,14 @@
         <v>7.775000000000011</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -20017,16 +20167,14 @@
         <v>7.77000000000001</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>7.77</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -20060,16 +20208,14 @@
         <v>7.910000000000011</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>7.72</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -20103,16 +20249,14 @@
         <v>8.050000000000011</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>8.050000000000001</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -20146,16 +20290,14 @@
         <v>8.025000000000011</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>8</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -20189,16 +20331,14 @@
         <v>7.900000000000011</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>7.81</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -20232,16 +20372,14 @@
         <v>7.795000000000011</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -20275,16 +20413,14 @@
         <v>7.740000000000011</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -20318,16 +20454,14 @@
         <v>7.675000000000011</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>7.69</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -20361,16 +20495,14 @@
         <v>7.68000000000001</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>7.69</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -20404,16 +20536,14 @@
         <v>7.705000000000011</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -20447,16 +20577,14 @@
         <v>7.710000000000012</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -20490,16 +20618,14 @@
         <v>7.710000000000012</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -20533,16 +20659,14 @@
         <v>7.750000000000011</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -20576,16 +20700,14 @@
         <v>7.795000000000011</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -20619,16 +20741,14 @@
         <v>7.800000000000011</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -20662,16 +20782,14 @@
         <v>7.85000000000001</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -20705,16 +20823,14 @@
         <v>7.89500000000001</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>7.8</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -20748,16 +20864,14 @@
         <v>7.89000000000001</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>7.89</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -20791,16 +20905,14 @@
         <v>7.88000000000001</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -20834,16 +20946,14 @@
         <v>7.785000000000009</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -20877,16 +20987,14 @@
         <v>7.785000000000009</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -20920,16 +21028,14 @@
         <v>7.955000000000009</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>7.87</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -20963,16 +21069,14 @@
         <v>8.070000000000009</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -21006,16 +21110,14 @@
         <v>8.125000000000011</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -21049,16 +21151,14 @@
         <v>8.275000000000009</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>8.15</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -21099,7 +21199,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -21140,7 +21240,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -21181,7 +21281,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -21222,7 +21322,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -21263,7 +21363,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -21304,7 +21404,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -21345,7 +21445,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -21386,7 +21486,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -21427,7 +21527,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -21468,7 +21568,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -21509,7 +21609,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -21550,7 +21650,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -21591,7 +21691,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -21632,7 +21732,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -21673,7 +21773,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -21714,7 +21814,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -21755,7 +21855,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -21796,7 +21896,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -21837,7 +21937,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -21878,7 +21978,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -21919,7 +22019,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -21960,7 +22060,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -22001,7 +22101,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -22042,7 +22142,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -22083,7 +22183,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -22124,7 +22224,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -22165,7 +22265,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -22206,7 +22306,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -22247,7 +22347,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -22288,7 +22388,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -22329,7 +22429,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -22370,7 +22470,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="n">
-        <v>7.79</v>
+        <v>8.07</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>

--- a/BackTest/2019-11-20 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-20 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2012905.5251959</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2180174.6286959</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2180506.0388959</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2180506.0388959</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2180506.0388959</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2230018.0183959</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2230018.0183959</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2191990.2611959</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1992830.407357344</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2343277.875757344</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2055610.891857344</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2054209.585157344</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1964903.717257344</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5566,10 +5566,14 @@
         <v>2147998.530657344</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="J157" t="n">
+        <v>8.529999999999999</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5599,11 +5603,19 @@
         <v>2147998.530657344</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="J158" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5647,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -8272,7 +8290,7 @@
         <v>3395716.257738953</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8323,7 @@
         <v>3395716.257738953</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8371,7 +8389,7 @@
         <v>3338306.150638953</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8422,7 @@
         <v>3338306.150638953</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8455,7 @@
         <v>3409095.882538953</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8488,7 @@
         <v>3409095.882538953</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8521,7 @@
         <v>3176812.500577508</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8554,7 @@
         <v>3192727.921877509</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8635,7 +8653,7 @@
         <v>3635690.437377508</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8686,7 @@
         <v>3635690.437377508</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8719,7 @@
         <v>3628700.083477508</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8752,7 @@
         <v>3628788.083477508</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8785,7 @@
         <v>3544186.333977508</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8818,7 @@
         <v>3706839.960977508</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8851,7 @@
         <v>3679398.147577508</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8998,7 +9016,7 @@
         <v>6508357.925756639</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9049,7 @@
         <v>6138067.039456639</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9082,7 @@
         <v>6307313.527056638</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9115,7 @@
         <v>6114028.616556638</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9148,7 @@
         <v>6085085.514456638</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9181,7 @@
         <v>6081696.359256638</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9526,7 +9544,7 @@
         <v>6465090.352914454</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9577,7 @@
         <v>6450283.641614455</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9610,7 @@
         <v>6323551.295414455</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9643,7 @@
         <v>6428905.298514456</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9676,7 @@
         <v>6328904.682814456</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9709,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9742,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9775,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9808,7 @@
         <v>6366587.656414455</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9841,7 @@
         <v>6013765.725014455</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9874,7 @@
         <v>5867756.971014455</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9907,7 @@
         <v>6239805.014414455</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9940,7 @@
         <v>6387682.662314455</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9973,7 @@
         <v>6152809.235814455</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10006,7 @@
         <v>6031763.607114455</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10039,7 @@
         <v>6031850.433614455</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10072,7 @@
         <v>6023505.080014455</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10105,7 @@
         <v>5919065.225514455</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10138,7 @@
         <v>6015927.134361208</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10171,7 @@
         <v>6012187.140161209</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10204,7 @@
         <v>5744511.803761208</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10237,7 @@
         <v>5744511.803761208</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10270,7 @@
         <v>5743511.803761208</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10303,7 @@
         <v>5591062.800361209</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10336,7 @@
         <v>5602646.131261209</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10369,7 @@
         <v>5625019.162261209</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10402,7 @@
         <v>5622764.82556121</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10435,7 @@
         <v>5613392.213961209</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10468,7 @@
         <v>5577318.562061209</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10501,7 @@
         <v>5577318.562061209</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10534,7 @@
         <v>5577318.562061209</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10567,7 @@
         <v>5695781.715461209</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10600,7 @@
         <v>5607036.60346121</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10633,7 @@
         <v>5669363.144261209</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10666,7 @@
         <v>5709139.63306121</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10699,7 @@
         <v>5711538.75016121</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10732,7 @@
         <v>5712586.38626121</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10765,7 @@
         <v>5712586.38626121</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10798,7 @@
         <v>5620273.470961209</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10912,7 +10930,7 @@
         <v>5802012.118061209</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10963,7 @@
         <v>5794321.58766121</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10996,7 @@
         <v>5794321.58766121</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11044,7 +11062,7 @@
         <v>5763301.256361209</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11176,7 +11194,7 @@
         <v>5696326.706561209</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12562,7 +12580,7 @@
         <v>7369175.194221443</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12628,7 +12646,7 @@
         <v>7357251.121821444</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12679,7 @@
         <v>7357323.300721443</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12712,7 @@
         <v>7360781.327221443</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12745,7 @@
         <v>7747488.868821443</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12778,7 @@
         <v>9052951.966582099</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12811,7 @@
         <v>9351910.459082099</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12844,7 @@
         <v>9258115.541182099</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12877,7 @@
         <v>8854028.414082099</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12910,7 @@
         <v>8889154.036082098</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12943,7 @@
         <v>8878488.924182098</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12976,7 @@
         <v>8891506.570382098</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13009,7 @@
         <v>8731533.022882098</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13042,7 @@
         <v>7750741.195482098</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13075,7 @@
         <v>7630375.797882099</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13189,7 +13207,7 @@
         <v>7380400.402082099</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13519,7 +13537,7 @@
         <v>7490118.1136821</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13783,7 +13801,7 @@
         <v>7235459.436782099</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13834,7 @@
         <v>6339358.447782099</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13867,7 @@
         <v>6260547.709282099</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14179,7 +14197,7 @@
         <v>6240023.369482099</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14245,7 +14263,7 @@
         <v>6248698.945182099</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14476,7 +14494,7 @@
         <v>10280583.0101821</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14527,7 @@
         <v>9194688.855182098</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14560,7 @@
         <v>8993647.605282098</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14641,7 +14659,7 @@
         <v>8840357.876282098</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14938,7 +14956,7 @@
         <v>8595856.109379383</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14989,7 @@
         <v>8407749.329179382</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15022,7 @@
         <v>8401001.906279381</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15055,7 @@
         <v>8496391.498379381</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15088,7 @@
         <v>8496491.498379381</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15121,7 @@
         <v>8490186.269279381</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15154,7 @@
         <v>8770756.295179382</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15187,7 @@
         <v>8764065.722279383</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15220,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15253,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15286,7 @@
         <v>9111493.239679383</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15319,7 @@
         <v>9152635.963679383</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15352,7 @@
         <v>9152575.963679383</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15385,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15418,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15451,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15484,7 @@
         <v>9167519.461279383</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15517,7 @@
         <v>9173602.738779383</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15631,7 +15649,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15682,7 @@
         <v>9585818.833079383</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15715,7 @@
         <v>9594376.529879382</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15748,7 @@
         <v>9413476.529879382</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15781,7 @@
         <v>9302341.531679383</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15814,7 @@
         <v>9252996.523679383</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15847,7 @@
         <v>9216064.866879383</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15880,7 @@
         <v>9219754.866879383</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15913,7 @@
         <v>9463948.598179383</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15946,7 @@
         <v>9455075.115779383</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15979,7 @@
         <v>9447976.541379383</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +16012,7 @@
         <v>9151831.120779382</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16045,7 @@
         <v>9218850.722479383</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16078,7 @@
         <v>9178424.966079382</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16111,7 @@
         <v>8588867.382079381</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16144,7 @@
         <v>8470420.821879381</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16177,7 @@
         <v>8262364.141679381</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16210,7 @@
         <v>8268574.141679381</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16243,7 @@
         <v>7868197.361679381</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16276,7 @@
         <v>7707517.33777938</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16309,7 @@
         <v>7632811.16147938</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16342,7 @@
         <v>7091231.91217938</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16375,7 @@
         <v>7129650.527579379</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16408,7 @@
         <v>7129650.527579379</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16441,7 @@
         <v>5969353.771579379</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16474,7 @@
         <v>6026736.794779379</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16507,7 @@
         <v>6045598.330679378</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16540,7 @@
         <v>6045598.330679378</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16573,7 @@
         <v>6235005.008879378</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16606,7 @@
         <v>6236005.008879378</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16639,7 @@
         <v>5815372.851079378</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16672,7 @@
         <v>5686200.146679378</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16705,7 @@
         <v>5482524.702479378</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16738,7 @@
         <v>5482524.702479378</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16771,7 @@
         <v>5464486.275879378</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16804,7 @@
         <v>5464486.275879378</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16837,7 @@
         <v>5588542.826179379</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16870,7 @@
         <v>5562765.504279379</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16903,7 @@
         <v>5665651.270314693</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16936,7 @@
         <v>5665651.270314693</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16969,7 @@
         <v>5665451.270314693</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +17002,7 @@
         <v>5680451.270314693</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17035,7 @@
         <v>5680451.270314693</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17068,7 @@
         <v>5775094.683950008</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17101,7 @@
         <v>5775094.683950008</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17134,7 @@
         <v>5718954.248450008</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17167,7 @@
         <v>5678528.492050008</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17200,7 @@
         <v>5696174.923850008</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17233,7 @@
         <v>5696174.923850008</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17266,7 @@
         <v>5696674.923850008</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17299,7 @@
         <v>5695187.255850009</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17332,7 @@
         <v>5807472.342550009</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17365,7 @@
         <v>5807472.342550009</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17398,7 @@
         <v>5807472.342550009</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19789,11 +19807,17 @@
         <v>2164460.78585001</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>7.82</v>
+      </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +19846,17 @@
         <v>2164460.78585001</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>8.07</v>
+      </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +19889,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +19926,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +19959,17 @@
         <v>2360947.453198311</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>7.78</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +20002,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +20039,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20076,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20113,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20150,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20187,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20224,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20261,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20298,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20335,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20372,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20409,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20446,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20483,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20520,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20557,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20594,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20631,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20668,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20705,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20742,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20779,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20816,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +20853,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,15 +20886,17 @@
         <v>2075434.485098312</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>7.77</v>
       </c>
-      <c r="J617" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,15 +20925,15 @@
         <v>2023611.675098312</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>7.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L618" t="n">
@@ -20822,15 +20964,15 @@
         <v>2023611.675098312</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
         <v>7.77</v>
       </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L619" t="n">
@@ -20861,11 +21003,17 @@
         <v>2030006.013498312</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20894,11 +21042,17 @@
         <v>2030006.013498312</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20931,7 +21085,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20964,7 +21122,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20997,7 +21159,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21030,7 +21196,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21059,11 +21229,17 @@
         <v>1434769.617798312</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>7.69</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21092,11 +21268,17 @@
         <v>1657906.108898312</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>7.66</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21125,11 +21307,17 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>7.7</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21158,15 +21346,17 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>7.71</v>
       </c>
-      <c r="J629" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21195,17 +21385,15 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>7.71</v>
       </c>
-      <c r="J630" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L630" t="n">
@@ -21236,17 +21424,15 @@
         <v>1782465.669698312</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>7.71</v>
       </c>
-      <c r="J631" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L631" t="n">
@@ -21277,17 +21463,15 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>7.79</v>
       </c>
-      <c r="J632" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L632" t="n">
@@ -21318,14 +21502,12 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>7.8</v>
       </c>
-      <c r="J633" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21359,14 +21541,12 @@
         <v>1839796.57146344</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>7.8</v>
       </c>
-      <c r="J634" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21400,14 +21580,12 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>7.9</v>
       </c>
-      <c r="J635" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21441,14 +21619,12 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>7.89</v>
       </c>
-      <c r="J636" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21482,14 +21658,12 @@
         <v>1247664.32776344</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>7.89</v>
       </c>
-      <c r="J637" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21523,14 +21697,12 @@
         <v>1227645.21416344</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>7.87</v>
       </c>
-      <c r="J638" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21564,14 +21736,12 @@
         <v>1227716.21456344</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>7.7</v>
       </c>
-      <c r="J639" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21605,12 +21775,12 @@
         <v>1351151.140698312</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21644,12 +21814,12 @@
         <v>1396706.140698312</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21683,12 +21853,12 @@
         <v>1419628.140698312</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21725,9 +21895,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21761,12 +21929,12 @@
         <v>1579459.183598312</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21803,9 +21971,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21842,9 +22008,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21881,9 +22045,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21920,9 +22082,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21956,14 +22116,10 @@
         <v>1414982.145498311</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="J649" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21997,14 +22153,10 @@
         <v>1416047.145498311</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J650" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22038,14 +22190,10 @@
         <v>1415414.145498311</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J651" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,14 +22227,10 @@
         <v>1414270.145498311</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="J652" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,14 +22264,10 @@
         <v>1414270.145498311</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="J653" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22161,14 +22301,12 @@
         <v>1414270.145498311</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>8.279999999999999</v>
       </c>
-      <c r="J654" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22202,14 +22340,12 @@
         <v>1240021.157498311</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>8.279999999999999</v>
       </c>
-      <c r="J655" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22243,14 +22379,12 @@
         <v>1194109.157498311</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>8.23</v>
       </c>
-      <c r="J656" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22284,14 +22418,12 @@
         <v>1190314.712498311</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>8.210000000000001</v>
       </c>
-      <c r="J657" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22325,14 +22457,12 @@
         <v>1185561.712498311</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>8.18</v>
       </c>
-      <c r="J658" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22366,14 +22496,12 @@
         <v>1264966.021198311</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="J659" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22407,14 +22535,12 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>8.15</v>
       </c>
-      <c r="J660" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22448,12 +22574,12 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22487,12 +22613,12 @@
         <v>1388169.162798311</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22526,12 +22652,12 @@
         <v>1388834.263298311</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22565,12 +22691,12 @@
         <v>1385585.487398311</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22604,12 +22730,12 @@
         <v>1208663.806898311</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22643,12 +22769,12 @@
         <v>1209718.826298311</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22682,12 +22808,12 @@
         <v>1043889.343598311</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22721,14 +22847,12 @@
         <v>1043960.443398311</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>7.89</v>
       </c>
-      <c r="J668" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22762,14 +22886,12 @@
         <v>1044790.443398311</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>8.09</v>
       </c>
-      <c r="J669" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22803,14 +22925,12 @@
         <v>937026.290598311</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>8.1</v>
       </c>
-      <c r="J670" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22844,14 +22964,12 @@
         <v>937103.401798311</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>7.87</v>
       </c>
-      <c r="J671" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22885,14 +23003,12 @@
         <v>937103.401798311</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>8.08</v>
       </c>
-      <c r="J672" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22926,12 +23042,12 @@
         <v>936913.401798311</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22965,12 +23081,12 @@
         <v>950227.504898311</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23004,12 +23120,12 @@
         <v>908155.755998311</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23043,12 +23159,12 @@
         <v>908155.755998311</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>7.71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23082,14 +23198,12 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="J677" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23123,14 +23237,12 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J678" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23164,14 +23276,12 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J679" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23205,14 +23315,12 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J680" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23246,14 +23354,12 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J681" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23287,14 +23393,12 @@
         <v>981724.2966983109</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J682" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23328,14 +23432,12 @@
         <v>982424.6668983109</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>7.96</v>
       </c>
-      <c r="J683" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23369,14 +23471,12 @@
         <v>985691.1632983108</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="J684" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23410,14 +23510,12 @@
         <v>985533.4782983108</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J685" t="n">
-        <v>7.71</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23429,6 +23527,6 @@
       <c r="M685" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-20 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2662,10 +2662,14 @@
         <v>1526557.471957344</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8.25</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2699,19 @@
         <v>1526622.471957344</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2740,19 @@
         <v>1495719.244957344</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2781,19 @@
         <v>1448462.580857344</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2822,19 @@
         <v>1448527.580857344</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2902,19 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2943,19 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J76" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3377,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,15 +4661,23 @@
         <v>1989184.528857344</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>1.067727272727273</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.12760736196319</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4378,7 +4702,7 @@
         <v>1985632.798157344</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4735,7 @@
         <v>1980591.735857344</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4768,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4801,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4834,7 @@
         <v>1991503.063057344</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4900,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4933,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5566,14 +5890,10 @@
         <v>2147998.530657344</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="J157" t="n">
-        <v>8.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5603,19 +5923,11 @@
         <v>2147998.530657344</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="J158" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +5959,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5782,7 +6088,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5815,7 +6121,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5848,7 +6154,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5881,7 +6187,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5914,7 +6220,7 @@
         <v>2062583.716857344</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -8125,7 +8431,7 @@
         <v>2267268.493957344</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8158,7 +8464,7 @@
         <v>2348622.027838953</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8191,7 +8497,7 @@
         <v>2750964.047838953</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8224,7 +8530,7 @@
         <v>2888943.880738953</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9544,7 +9850,7 @@
         <v>6465090.352914454</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9577,7 +9883,7 @@
         <v>6450283.641614455</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9610,7 +9916,7 @@
         <v>6323551.295414455</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9643,7 +9949,7 @@
         <v>6428905.298514456</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9676,7 +9982,7 @@
         <v>6328904.682814456</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9709,7 +10015,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9742,7 +10048,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9775,7 +10081,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9808,7 +10114,7 @@
         <v>6366587.656414455</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9841,7 +10147,7 @@
         <v>6013765.725014455</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9874,7 +10180,7 @@
         <v>5867756.971014455</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9907,7 +10213,7 @@
         <v>6239805.014414455</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9940,7 +10246,7 @@
         <v>6387682.662314455</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9973,7 +10279,7 @@
         <v>6152809.235814455</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10006,7 +10312,7 @@
         <v>6031763.607114455</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10039,7 +10345,7 @@
         <v>6031850.433614455</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10072,7 +10378,7 @@
         <v>6023505.080014455</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10105,7 +10411,7 @@
         <v>5919065.225514455</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10138,7 +10444,7 @@
         <v>6015927.134361208</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10171,7 +10477,7 @@
         <v>6012187.140161209</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10204,7 +10510,7 @@
         <v>5744511.803761208</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10237,7 +10543,7 @@
         <v>5744511.803761208</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10270,7 +10576,7 @@
         <v>5743511.803761208</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10303,7 +10609,7 @@
         <v>5591062.800361209</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10336,7 +10642,7 @@
         <v>5602646.131261209</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10369,7 +10675,7 @@
         <v>5625019.162261209</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10402,7 +10708,7 @@
         <v>5622764.82556121</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10435,7 +10741,7 @@
         <v>5613392.213961209</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10468,7 +10774,7 @@
         <v>5577318.562061209</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10501,7 +10807,7 @@
         <v>5577318.562061209</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10534,7 +10840,7 @@
         <v>5577318.562061209</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10567,7 +10873,7 @@
         <v>5695781.715461209</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10600,7 +10906,7 @@
         <v>5607036.60346121</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10633,7 +10939,7 @@
         <v>5669363.144261209</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10699,7 +11005,7 @@
         <v>5711538.75016121</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10732,7 +11038,7 @@
         <v>5712586.38626121</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10765,7 +11071,7 @@
         <v>5712586.38626121</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10798,7 +11104,7 @@
         <v>5620273.470961209</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12646,7 +12952,7 @@
         <v>7357251.121821444</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12679,7 +12985,7 @@
         <v>7357323.300721443</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12712,7 +13018,7 @@
         <v>7360781.327221443</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12745,7 +13051,7 @@
         <v>7747488.868821443</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12778,7 +13084,7 @@
         <v>9052951.966582099</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12811,7 +13117,7 @@
         <v>9351910.459082099</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12844,7 +13150,7 @@
         <v>9258115.541182099</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12877,7 +13183,7 @@
         <v>8854028.414082099</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12910,7 +13216,7 @@
         <v>8889154.036082098</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12943,7 +13249,7 @@
         <v>8878488.924182098</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13009,7 +13315,7 @@
         <v>8731533.022882098</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13042,7 +13348,7 @@
         <v>7750741.195482098</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13075,7 +13381,7 @@
         <v>7630375.797882099</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13108,7 +13414,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13141,7 +13447,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13174,7 +13480,7 @@
         <v>7390522.340282098</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13240,7 +13546,7 @@
         <v>7335351.421282099</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13273,7 +13579,7 @@
         <v>7339720.547882099</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13306,7 +13612,7 @@
         <v>7339387.400782099</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13339,7 +13645,7 @@
         <v>7411904.128782099</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13372,7 +13678,7 @@
         <v>7435819.618282099</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13405,7 +13711,7 @@
         <v>7435519.681882099</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13438,7 +13744,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13471,7 +13777,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13504,7 +13810,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13570,7 +13876,7 @@
         <v>7490052.1136821</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13603,7 +13909,7 @@
         <v>7489920.1136821</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13636,7 +13942,7 @@
         <v>7404376.4429821</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13768,7 +14074,7 @@
         <v>7235696.123182099</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13867,7 +14173,7 @@
         <v>6260547.709282099</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14197,7 +14503,7 @@
         <v>6240023.369482099</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14263,7 +14569,7 @@
         <v>6248698.945182099</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14659,7 +14965,7 @@
         <v>8840357.876282098</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14956,7 +15262,7 @@
         <v>8595856.109379383</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14989,7 +15295,7 @@
         <v>8407749.329179382</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15022,7 +15328,7 @@
         <v>8401001.906279381</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15055,7 +15361,7 @@
         <v>8496391.498379381</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15088,7 +15394,7 @@
         <v>8496491.498379381</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15121,7 +15427,7 @@
         <v>8490186.269279381</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15187,7 +15493,7 @@
         <v>8764065.722279383</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15484,7 +15790,7 @@
         <v>9167519.461279383</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15517,7 +15823,7 @@
         <v>9173602.738779383</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15550,7 +15856,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15583,7 +15889,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15616,7 +15922,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15682,7 +15988,7 @@
         <v>9585818.833079383</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15715,7 +16021,7 @@
         <v>9594376.529879382</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15748,7 +16054,7 @@
         <v>9413476.529879382</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15781,7 +16087,7 @@
         <v>9302341.531679383</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15814,7 +16120,7 @@
         <v>9252996.523679383</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15847,7 +16153,7 @@
         <v>9216064.866879383</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15979,7 +16285,7 @@
         <v>9447976.541379383</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16012,7 +16318,7 @@
         <v>9151831.120779382</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16045,7 +16351,7 @@
         <v>9218850.722479383</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16078,7 +16384,7 @@
         <v>9178424.966079382</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16111,7 +16417,7 @@
         <v>8588867.382079381</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16144,7 +16450,7 @@
         <v>8470420.821879381</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16177,7 +16483,7 @@
         <v>8262364.141679381</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16210,7 +16516,7 @@
         <v>8268574.141679381</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16243,7 +16549,7 @@
         <v>7868197.361679381</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16276,7 +16582,7 @@
         <v>7707517.33777938</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16309,7 +16615,7 @@
         <v>7632811.16147938</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16342,7 +16648,7 @@
         <v>7091231.91217938</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16375,7 +16681,7 @@
         <v>7129650.527579379</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16408,7 +16714,7 @@
         <v>7129650.527579379</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16441,7 +16747,7 @@
         <v>5969353.771579379</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16474,7 +16780,7 @@
         <v>6026736.794779379</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16507,7 +16813,7 @@
         <v>6045598.330679378</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16540,7 +16846,7 @@
         <v>6045598.330679378</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16573,7 +16879,7 @@
         <v>6235005.008879378</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16606,7 +16912,7 @@
         <v>6236005.008879378</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16639,7 +16945,7 @@
         <v>5815372.851079378</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16672,7 +16978,7 @@
         <v>5686200.146679378</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16705,7 +17011,7 @@
         <v>5482524.702479378</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16738,7 +17044,7 @@
         <v>5482524.702479378</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16771,7 +17077,7 @@
         <v>5464486.275879378</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16804,7 +17110,7 @@
         <v>5464486.275879378</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16837,7 +17143,7 @@
         <v>5588542.826179379</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16870,7 +17176,7 @@
         <v>5562765.504279379</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16903,7 +17209,7 @@
         <v>5665651.270314693</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16936,7 +17242,7 @@
         <v>5665651.270314693</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16969,7 +17275,7 @@
         <v>5665451.270314693</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17002,7 +17308,7 @@
         <v>5680451.270314693</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17035,7 +17341,7 @@
         <v>5680451.270314693</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17068,7 +17374,7 @@
         <v>5775094.683950008</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17101,7 +17407,7 @@
         <v>5775094.683950008</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17134,7 +17440,7 @@
         <v>5718954.248450008</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17167,7 +17473,7 @@
         <v>5678528.492050008</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17200,7 +17506,7 @@
         <v>5696174.923850008</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17233,7 +17539,7 @@
         <v>5696174.923850008</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17266,7 +17572,7 @@
         <v>5696674.923850008</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17299,7 +17605,7 @@
         <v>5695187.255850009</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17332,7 +17638,7 @@
         <v>5807472.342550009</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17365,7 +17671,7 @@
         <v>5807472.342550009</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17398,7 +17704,7 @@
         <v>5807472.342550009</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19807,17 +20113,11 @@
         <v>2164460.78585001</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19846,17 +20146,11 @@
         <v>2164460.78585001</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>8.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19889,11 +20183,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19926,11 +20216,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19959,17 +20245,11 @@
         <v>2360947.453198311</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20002,11 +20282,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20039,11 +20315,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20076,11 +20348,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20113,11 +20381,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20150,11 +20414,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20187,11 +20447,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20224,11 +20480,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20261,11 +20513,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20298,11 +20546,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20335,11 +20579,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20372,11 +20612,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20409,11 +20645,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20446,11 +20678,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20483,11 +20711,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20520,11 +20744,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20557,11 +20777,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20594,11 +20810,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20631,11 +20843,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20668,11 +20876,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20705,11 +20909,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20742,11 +20942,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +20975,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20816,11 +21008,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20853,11 +21041,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20886,17 +21070,11 @@
         <v>2075434.485098312</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20925,17 +21103,11 @@
         <v>2023611.675098312</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20964,17 +21136,11 @@
         <v>2023611.675098312</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21003,17 +21169,11 @@
         <v>2030006.013498312</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21042,17 +21202,11 @@
         <v>2030006.013498312</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21085,11 +21239,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21122,11 +21272,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21159,11 +21305,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21196,11 +21338,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21229,17 +21367,11 @@
         <v>1434769.617798312</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>7.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21268,17 +21400,11 @@
         <v>1657906.108898312</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>7.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21307,17 +21433,11 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21346,17 +21466,11 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21385,17 +21499,11 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21424,17 +21532,11 @@
         <v>1782465.669698312</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>7.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21463,17 +21565,11 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>7.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21502,17 +21598,11 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21541,17 +21631,11 @@
         <v>1839796.57146344</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21580,17 +21664,11 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21619,17 +21697,11 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21658,17 +21730,11 @@
         <v>1247664.32776344</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21697,17 +21763,11 @@
         <v>1227645.21416344</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>7.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21736,17 +21796,11 @@
         <v>1227716.21456344</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21775,17 +21829,11 @@
         <v>1351151.140698312</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>7.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21814,17 +21862,11 @@
         <v>1396706.140698312</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21853,17 +21895,11 @@
         <v>1419628.140698312</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>8.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21896,11 +21932,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21929,17 +21961,11 @@
         <v>1579459.183598312</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>8.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21972,11 +21998,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22009,11 +22031,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22046,11 +22064,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22083,11 +22097,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22120,11 +22130,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22157,11 +22163,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22194,11 +22196,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +22229,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22268,11 +22262,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22301,17 +22291,11 @@
         <v>1414270.145498311</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>8.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22340,17 +22324,11 @@
         <v>1240021.157498311</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>8.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22379,17 +22357,11 @@
         <v>1194109.157498311</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>8.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22418,17 +22390,11 @@
         <v>1190314.712498311</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>8.210000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22457,17 +22423,11 @@
         <v>1185561.712498311</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>8.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22496,17 +22456,11 @@
         <v>1264966.021198311</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>8.119999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22535,17 +22489,11 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>8.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22574,17 +22522,11 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>8.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22613,17 +22555,11 @@
         <v>1388169.162798311</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>8.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22652,17 +22588,11 @@
         <v>1388834.263298311</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>8.210000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22691,17 +22621,11 @@
         <v>1385585.487398311</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>8.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22730,17 +22654,11 @@
         <v>1208663.806898311</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>8.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22769,17 +22687,11 @@
         <v>1209718.826298311</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>7.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22808,17 +22720,11 @@
         <v>1043889.343598311</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>8.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22847,17 +22753,11 @@
         <v>1043960.443398311</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22886,17 +22786,11 @@
         <v>1044790.443398311</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>8.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22925,17 +22819,11 @@
         <v>937026.290598311</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>8.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22964,17 +22852,11 @@
         <v>937103.401798311</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>7.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23003,17 +22885,11 @@
         <v>937103.401798311</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>8.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23042,17 +22918,11 @@
         <v>936913.401798311</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>8.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23081,17 +22951,11 @@
         <v>950227.504898311</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>8.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23120,17 +22984,11 @@
         <v>908155.755998311</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>8.109999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23159,17 +23017,11 @@
         <v>908155.755998311</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23198,17 +23050,11 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23237,17 +23083,11 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23276,17 +23116,11 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23315,17 +23149,11 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23354,17 +23182,11 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>8.029999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23393,17 +23215,11 @@
         <v>981724.2966983109</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>8.029999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23432,17 +23248,11 @@
         <v>982424.6668983109</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>7.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23471,17 +23281,11 @@
         <v>985691.1632983108</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23510,23 +23314,17 @@
         <v>985533.4782983108</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>8.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
       <c r="M685" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ZIL.xlsx
+++ b/BackTest/2019-11-20 BackTest ZIL.xlsx
@@ -2662,14 +2662,10 @@
         <v>1526557.471957344</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2699,19 +2695,11 @@
         <v>1526622.471957344</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2740,19 +2728,11 @@
         <v>1495719.244957344</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J71" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +2761,11 @@
         <v>1448462.580857344</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2822,19 +2794,11 @@
         <v>1448527.580857344</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2902,19 +2860,11 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="J75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2943,19 +2893,11 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3026,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3260,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3299,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3377,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3416,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3455,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3494,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3572,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3689,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3728,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3845,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3884,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3923,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3962,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4001,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4040,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4079,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4118,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4157,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4196,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4235,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4274,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4313,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4352,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4391,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4430,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4469,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4508,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4547,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4586,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4625,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4661,23 +4345,15 @@
         <v>1989184.528857344</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>1.067727272727273</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.12760736196319</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4702,7 +4378,7 @@
         <v>1985632.798157344</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4735,7 +4411,7 @@
         <v>1980591.735857344</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4768,7 +4444,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4801,7 +4477,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4834,7 +4510,7 @@
         <v>1991503.063057344</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4900,7 +4576,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4933,7 +4609,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -6088,7 +5764,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6121,7 +5797,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6154,7 +5830,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6187,7 +5863,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6220,7 +5896,7 @@
         <v>2062583.716857344</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -8431,7 +8107,7 @@
         <v>2267268.493957344</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8464,7 +8140,7 @@
         <v>2348622.027838953</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8497,7 +8173,7 @@
         <v>2750964.047838953</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8530,7 +8206,7 @@
         <v>2888943.880738953</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9322,7 +8998,7 @@
         <v>6508357.925756639</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9355,7 +9031,7 @@
         <v>6138067.039456639</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9388,7 +9064,7 @@
         <v>6307313.527056638</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9421,7 +9097,7 @@
         <v>6114028.616556638</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9454,7 +9130,7 @@
         <v>6085085.514456638</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9487,7 +9163,7 @@
         <v>6081696.359256638</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9520,7 +9196,7 @@
         <v>5937797.672356638</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9586,7 +9262,7 @@
         <v>5937179.523756638</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9619,7 +9295,7 @@
         <v>6381883.836156638</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9652,7 +9328,7 @@
         <v>6425907.933856638</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9685,7 +9361,7 @@
         <v>6299309.892456638</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9718,7 +9394,7 @@
         <v>6484582.105656638</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9751,7 +9427,7 @@
         <v>6484582.105656638</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9784,7 +9460,7 @@
         <v>6461411.992456638</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9850,7 +9526,7 @@
         <v>6465090.352914454</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9883,7 +9559,7 @@
         <v>6450283.641614455</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10081,7 +9757,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10114,7 +9790,7 @@
         <v>6366587.656414455</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10147,7 +9823,7 @@
         <v>6013765.725014455</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10180,7 +9856,7 @@
         <v>5867756.971014455</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -12952,7 +12628,7 @@
         <v>7357251.121821444</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12985,7 +12661,7 @@
         <v>7357323.300721443</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13018,7 +12694,7 @@
         <v>7360781.327221443</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13051,7 +12727,7 @@
         <v>7747488.868821443</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13084,7 +12760,7 @@
         <v>9052951.966582099</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13117,7 +12793,7 @@
         <v>9351910.459082099</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13216,7 +12892,7 @@
         <v>8889154.036082098</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13249,7 +12925,7 @@
         <v>8878488.924182098</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13282,7 +12958,7 @@
         <v>8891506.570382098</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13414,7 +13090,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13447,7 +13123,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13480,7 +13156,7 @@
         <v>7390522.340282098</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13513,7 +13189,7 @@
         <v>7380400.402082099</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13546,7 +13222,7 @@
         <v>7335351.421282099</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13579,7 +13255,7 @@
         <v>7339720.547882099</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13612,7 +13288,7 @@
         <v>7339387.400782099</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13645,7 +13321,7 @@
         <v>7411904.128782099</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13678,7 +13354,7 @@
         <v>7435819.618282099</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13711,7 +13387,7 @@
         <v>7435519.681882099</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13744,7 +13420,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13777,7 +13453,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13810,7 +13486,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13843,7 +13519,7 @@
         <v>7490118.1136821</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13876,7 +13552,7 @@
         <v>7490052.1136821</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13909,7 +13585,7 @@
         <v>7489920.1136821</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13942,7 +13618,7 @@
         <v>7404376.4429821</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14074,7 +13750,7 @@
         <v>7235696.123182099</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14107,7 +13783,7 @@
         <v>7235459.436782099</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14140,7 +13816,7 @@
         <v>6339358.447782099</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15526,7 +15202,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15559,7 +15235,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15592,7 +15268,7 @@
         <v>9111493.239679383</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15625,7 +15301,7 @@
         <v>9152635.963679383</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15658,7 +15334,7 @@
         <v>9152575.963679383</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15691,7 +15367,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15724,7 +15400,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15757,7 +15433,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15856,7 +15532,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15889,7 +15565,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15922,7 +15598,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15955,7 +15631,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16186,7 +15862,7 @@
         <v>9219754.866879383</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16219,7 +15895,7 @@
         <v>9463948.598179383</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16252,7 +15928,7 @@
         <v>9455075.115779383</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -21433,10 +21109,14 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J628" t="n">
+        <v>7.7</v>
+      </c>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
@@ -21466,11 +21146,19 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J629" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21499,11 +21187,19 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J630" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21532,10 +21228,14 @@
         <v>1782465.669698312</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="J631" t="n">
+        <v>7.71</v>
+      </c>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
@@ -21565,11 +21265,19 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="J632" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21598,11 +21306,19 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J633" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21631,11 +21347,19 @@
         <v>1839796.57146344</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J634" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21664,11 +21388,19 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J635" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21697,11 +21429,19 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J636" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21730,11 +21470,19 @@
         <v>1247664.32776344</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J637" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21763,11 +21511,19 @@
         <v>1227645.21416344</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J638" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21796,11 +21552,19 @@
         <v>1227716.21456344</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J639" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21829,11 +21593,19 @@
         <v>1351151.140698312</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J640" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21862,11 +21634,19 @@
         <v>1396706.140698312</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J641" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21898,8 +21678,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21931,8 +21717,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21964,8 +21756,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21997,8 +21795,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22030,8 +21834,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22063,8 +21873,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22096,8 +21912,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22129,8 +21951,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22162,8 +21990,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22195,8 +22029,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22228,8 +22068,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22261,8 +22107,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22294,8 +22146,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22327,8 +22185,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22357,11 +22221,19 @@
         <v>1194109.157498311</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J656" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22390,11 +22262,19 @@
         <v>1190314.712498311</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="J657" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22423,11 +22303,19 @@
         <v>1185561.712498311</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="J658" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22456,11 +22344,19 @@
         <v>1264966.021198311</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="J659" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22489,11 +22385,19 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="J660" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22522,11 +22426,19 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J661" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22555,11 +22467,19 @@
         <v>1388169.162798311</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J662" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22588,11 +22508,19 @@
         <v>1388834.263298311</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="J663" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22621,11 +22549,19 @@
         <v>1385585.487398311</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J664" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22654,11 +22590,19 @@
         <v>1208663.806898311</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J665" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22687,11 +22631,19 @@
         <v>1209718.826298311</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J666" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22720,11 +22672,19 @@
         <v>1043889.343598311</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J667" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22753,11 +22713,19 @@
         <v>1043960.443398311</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J668" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22786,11 +22754,19 @@
         <v>1044790.443398311</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="J669" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22819,11 +22795,19 @@
         <v>937026.290598311</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J670" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22852,11 +22836,19 @@
         <v>937103.401798311</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J671" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22885,11 +22877,19 @@
         <v>937103.401798311</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="J672" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22918,11 +22918,19 @@
         <v>936913.401798311</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="J673" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22951,11 +22959,19 @@
         <v>950227.504898311</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="J674" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22984,11 +23000,19 @@
         <v>908155.755998311</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="J675" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23017,11 +23041,19 @@
         <v>908155.755998311</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J676" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23050,11 +23082,19 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J677" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23083,11 +23123,19 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J678" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23116,11 +23164,19 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J679" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23149,11 +23205,19 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J680" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23182,11 +23246,19 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J681" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23215,11 +23287,19 @@
         <v>981724.2966983109</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="J682" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23248,11 +23328,19 @@
         <v>982424.6668983109</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J683" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23281,11 +23369,19 @@
         <v>985691.1632983108</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J684" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23314,11 +23410,19 @@
         <v>985533.4782983108</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J685" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
